--- a/Vesperale OP English Psalm Tones.xlsx
+++ b/Vesperale OP English Psalm Tones.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/misericordia/Documents/GitHub/VesperaleOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Officium/Documents/GitHub/VesperaleOP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24880" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="24460" yWindow="2480" windowWidth="24880" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Mode</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Cadential Syllables</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>(hr f) †(;3) (hr i h) &lt;v&gt;$\star$&lt;/v&gt;(;) (hr i g f ::)</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,6 +411,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>

--- a/Vesperale OP English Psalm Tones.xlsx
+++ b/Vesperale OP English Psalm Tones.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Mode</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>(hr f) †(;3) (hr i h) &lt;v&gt;$\star$&lt;/v&gt;(;) (hr i g f ::)</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>(hr g) †(;3) (hr ixi g h) &lt;v&gt;$\star$&lt;/v&gt;(;) (hr g f g ::)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +392,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -411,6 +417,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>

--- a/Vesperale OP English Psalm Tones.xlsx
+++ b/Vesperale OP English Psalm Tones.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24460" yWindow="2480" windowWidth="24880" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="18780" yWindow="1920" windowWidth="24880" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Mode</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>(hr g) †(;3) (hr ixi g h) &lt;v&gt;$\star$&lt;/v&gt;(;) (hr g f g ::)</t>
+  </si>
+  <si>
+    <t>(ir h) †(;3) (ir k i j) &lt;v&gt;$\star$&lt;/v&gt;(;) (ir j h f ::)</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,6 +460,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
